--- a/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-07-25.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>47.50</t>
+          <t>23.75</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
